--- a/admin/ROYALTY_SERVICE_REPORT.xlsx
+++ b/admin/ROYALTY_SERVICE_REPORT.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>ROYALTY SERVICE REPORT</t>
   </si>
   <si>
-    <t>Franchisee: Dance Enterprises, Inc. DBA Arthur Murray Thousand Oaks (Arthur Murray Thousand Oaks)</t>
-  </si>
-  <si>
-    <t>(12/31/1969 - 01/06/1970)</t>
-  </si>
-  <si>
-    <t>Week # 51</t>
+    <t>Franchisee: Amto.Robert (Arthur Murray Thousand Oaks, Asansol)</t>
+  </si>
+  <si>
+    <t>(04/06/2025 - 04/12/2025)</t>
+  </si>
+  <si>
+    <t>Week # 15</t>
   </si>
   <si>
     <t>Staff code</t>
@@ -74,6 +74,30 @@
     <t>Studio Grand Total</t>
   </si>
   <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>Carol Henry</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera</t>
+  </si>
+  <si>
+    <t>Robert Melgoza</t>
+  </si>
+  <si>
+    <t>37/REN</t>
+  </si>
+  <si>
+    <t>0 / $1000.00</t>
+  </si>
+  <si>
+    <t>Daily Totals</t>
+  </si>
+  <si>
     <t>Refunds or credits below completed tuition refund report &amp; photocopy of front &amp; back of canceled checks must be attached in order to receive credits. (Identify bank plan, rewrites &amp; cancellation. Attach detail on authorized D-O-R transportation details.)</t>
   </si>
   <si>
@@ -110,6 +134,9 @@
     <t>Total receipts</t>
   </si>
   <si>
+    <t>1,000.00</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -119,7 +146,16 @@
     <t>Total subject to r/s fee</t>
   </si>
   <si>
-    <t xml:space="preserve"> ---------- 0.00</t>
+    <t xml:space="preserve">Arthur Murray Thousand Oaks - </t>
+  </si>
+  <si>
+    <t>$1,000.00 ---------- 1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X 7 % - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.00 - </t>
   </si>
 </sst>
 </file>
@@ -187,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -208,6 +244,9 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -511,10 +550,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,134 +648,204 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7">
+        <v>100000024</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
+      <c r="A8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-0</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="3">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="7">
-        <v>-0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>-0</v>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="L13" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="8">
+        <v>-0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -747,27 +856,28 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:M11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/ROYALTY_SERVICE_REPORT.xlsx
+++ b/admin/ROYALTY_SERVICE_REPORT.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>ROYALTY SERVICE REPORT</t>
   </si>
   <si>
-    <t>Franchisee: Amto.Robert (Arthur Murray Thousand Oaks, Asansol)</t>
-  </si>
-  <si>
-    <t>(04/06/2025 - 04/12/2025)</t>
-  </si>
-  <si>
-    <t>Week # 15</t>
+    <t>Franchisee: Amto.Robert (Arthur Murray Thousand Oaks)</t>
+  </si>
+  <si>
+    <t>(10/19/2025 - 10/25/2025)</t>
+  </si>
+  <si>
+    <t>Week # 42</t>
   </si>
   <si>
     <t>Staff code</t>
@@ -74,30 +74,6 @@
     <t>Studio Grand Total</t>
   </si>
   <si>
-    <t>04/09/2025</t>
-  </si>
-  <si>
-    <t>Carol Henry</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Edwin Cabrera</t>
-  </si>
-  <si>
-    <t>Robert Melgoza</t>
-  </si>
-  <si>
-    <t>37/REN</t>
-  </si>
-  <si>
-    <t>0 / $1000.00</t>
-  </si>
-  <si>
-    <t>Daily Totals</t>
-  </si>
-  <si>
     <t>Refunds or credits below completed tuition refund report &amp; photocopy of front &amp; back of canceled checks must be attached in order to receive credits. (Identify bank plan, rewrites &amp; cancellation. Attach detail on authorized D-O-R transportation details.)</t>
   </si>
   <si>
@@ -134,9 +110,6 @@
     <t>Total receipts</t>
   </si>
   <si>
-    <t>1,000.00</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -146,16 +119,7 @@
     <t>Total subject to r/s fee</t>
   </si>
   <si>
-    <t xml:space="preserve">Arthur Murray Thousand Oaks - </t>
-  </si>
-  <si>
-    <t>$1,000.00 ---------- 1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X 7 % - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.00 - </t>
+    <t xml:space="preserve"> ---------- 0.00</t>
   </si>
 </sst>
 </file>
@@ -223,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -244,9 +208,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -550,10 +511,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,204 +609,134 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="7">
-        <v>100000024</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="I7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1000</v>
-      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="3">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7">
         <v>-0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>37</v>
+      <c r="M12" s="7">
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="8">
-        <v>-0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -856,28 +747,27 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:F10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/ROYALTY_SERVICE_REPORT.xlsx
+++ b/admin/ROYALTY_SERVICE_REPORT.xlsx
@@ -23,10 +23,10 @@
     <t>Franchisee: Amto.Robert (Arthur Murray Thousand Oaks)</t>
   </si>
   <si>
-    <t>(10/19/2025 - 10/25/2025)</t>
-  </si>
-  <si>
-    <t>Week # 42</t>
+    <t>(09/14/2025 - 09/20/2025)</t>
+  </si>
+  <si>
+    <t>Week # 38</t>
   </si>
   <si>
     <t>Staff code</t>
